--- a/mapper_simulation.xlsx
+++ b/mapper_simulation.xlsx
@@ -5,31 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUHH\Semester_3\Project\Test_probes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUHH\Semester_3\Project\HPC_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD3851-AED9-42D3-8CE8-EB4F9911F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA878D30-31DA-49AB-B249-1605A9BC446F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D5F9DDC-61D3-4085-94EA-63F48BE7F33E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -440,7 +429,7 @@
   <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
